--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissi\Revature\UiPathP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42609B8E-3E91-488D-A87D-9B9F7BF99EF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC1496-9C13-4A0C-85D3-23A57831E801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42580" yWindow="4040" windowWidth="28800" windowHeight="15460" xr2:uid="{2874B866-EABE-4FA9-94C6-6987887B00FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Indeed</t>
   </si>
@@ -44,15 +44,35 @@
   <si>
     <t>ziprecruiter</t>
   </si>
+  <si>
+    <t>kirbyrchan2@gmail.com</t>
+  </si>
+  <si>
+    <t>RevatureProject123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD723954-FAC0-4F0D-9150-F9D22DAE9A76}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,22 +430,45 @@
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{DCCCCA9A-F42C-476A-A58A-E5489264EACE}"/>
+    <hyperlink ref="B2:B3" r:id="rId2" display="kirbyrchan2@gmail.com" xr:uid="{24586452-A4EE-432E-9AA0-0A46A245D8C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>